--- a/1. league_castle/1.2) 2017-08-23_3day_league_castle_base.xlsx
+++ b/1. league_castle/1.2) 2017-08-23_3day_league_castle_base.xlsx
@@ -495,10 +495,10 @@
         <v>0.001576044129235619</v>
       </c>
       <c r="K2">
-        <v>0.5693367786391043</v>
+        <v>0.5689061154177433</v>
       </c>
       <c r="L2">
-        <v>0.2973729543496985</v>
+        <v>0.2978036175710594</v>
       </c>
       <c r="M2">
         <v>0.1027131782945736</v>

--- a/1. league_castle/1.2) 2017-08-23_3day_league_castle_base.xlsx
+++ b/1. league_castle/1.2) 2017-08-23_3day_league_castle_base.xlsx
@@ -474,49 +474,49 @@
         <v>1269</v>
       </c>
       <c r="D2">
-        <v>0.3396375098502758</v>
+        <v>0.3467297084318361</v>
       </c>
       <c r="E2">
-        <v>0.3301812450748621</v>
+        <v>0.3372734436564224</v>
       </c>
       <c r="F2">
-        <v>0.1473601260835303</v>
+        <v>0.1410559495665879</v>
       </c>
       <c r="G2">
-        <v>0.1126871552403467</v>
+        <v>0.1142631993695823</v>
       </c>
       <c r="H2">
-        <v>0.06067769897557131</v>
+        <v>0.0504334121355398</v>
       </c>
       <c r="I2">
-        <v>0.007880220646178092</v>
+        <v>0.008668242710795903</v>
       </c>
       <c r="J2">
         <v>0.001576044129235619</v>
       </c>
       <c r="K2">
-        <v>0.5689061154177433</v>
+        <v>0.5692511597084162</v>
       </c>
       <c r="L2">
-        <v>0.2978036175710594</v>
+        <v>0.2975480450629556</v>
       </c>
       <c r="M2">
-        <v>0.1027131782945736</v>
+        <v>0.103158824828805</v>
       </c>
       <c r="N2">
-        <v>0.0260551248923342</v>
+        <v>0.02584493041749503</v>
       </c>
       <c r="O2">
-        <v>0.003445305770887166</v>
+        <v>0.003092555776452397</v>
       </c>
       <c r="P2">
-        <v>0.0006459948320413437</v>
+        <v>0.0006626905235255136</v>
       </c>
       <c r="Q2">
-        <v>0.0002153316106804479</v>
+        <v>0.0002208968411751712</v>
       </c>
       <c r="R2">
-        <v>0.0002153316106804479</v>
+        <v>0.0002208968411751712</v>
       </c>
     </row>
   </sheetData>
